--- a/src/main/resources/excel/test.xlsx
+++ b/src/main/resources/excel/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>生产工厂</t>
   </si>
@@ -104,6 +104,42 @@
   </si>
   <si>
     <t>说明</t>
+  </si>
+  <si>
+    <t>MASA</t>
+  </si>
+  <si>
+    <t>欠料电子料</t>
+  </si>
+  <si>
+    <t>Z2C10101002882/ZXD1</t>
+  </si>
+  <si>
+    <t>2021-09-08 08:49:19</t>
+  </si>
+  <si>
+    <t>2021-09-12</t>
+  </si>
+  <si>
+    <t>DMTK2102044</t>
+  </si>
+  <si>
+    <t>DOOS211279</t>
+  </si>
+  <si>
+    <t>GCXU5822395</t>
+  </si>
+  <si>
+    <t>2021-03-17</t>
+  </si>
+  <si>
+    <t>2021-03-14 19:02</t>
+  </si>
+  <si>
+    <t>2021-03-17 18:12</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -111,13 +147,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +163,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -142,16 +185,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,15 +200,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,48 +222,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +237,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -251,7 +315,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,27 +324,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,13 +344,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,13 +416,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,151 +506,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +557,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,8 +565,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,26 +588,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,6 +610,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -599,11 +636,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,10 +658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,164 +670,171 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1107,501 +1157,645 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.66086956521739" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.66086956521739" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.5826086956522" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.66086956521739" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.66086956521739" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.5130434782609" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.504347826087" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.504347826087" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.66086956521739" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.504347826087" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.504347826087" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.66086956521739" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.8347826086957" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.8347826086957" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.8347826086957" style="5" customWidth="1"/>
     <col min="10" max="10" width="16.0173913043478" style="2" customWidth="1"/>
     <col min="11" max="11" width="12.0173913043478" style="2" customWidth="1"/>
     <col min="12" max="12" width="10.9217391304348" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.66086956521739" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.8347826086957" style="5" customWidth="1"/>
-    <col min="15" max="15" width="26.4434782608696" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10.8347826086957" style="5" customWidth="1"/>
-    <col min="17" max="17" width="15.5652173913043" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8.66086956521739" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.8347826086957" style="6" customWidth="1"/>
+    <col min="15" max="15" width="26.4434782608696" style="6" customWidth="1"/>
+    <col min="16" max="16" width="10.8347826086957" style="6" customWidth="1"/>
+    <col min="17" max="17" width="15.5652173913043" style="6" customWidth="1"/>
     <col min="18" max="18" width="16.3304347826087" style="2" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.65" customHeight="1" spans="1:18">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="25.35" spans="1:18">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="12" t="s">
+      <c r="M2" s="8"/>
+      <c r="N2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="8"/>
+      <c r="R2" s="9"/>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:18">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="13">
         <v>44332</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12" t="s">
+      <c r="M3" s="8"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="8"/>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:18">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="8"/>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:18">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:18">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:18">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="8"/>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:18">
+      <c r="A4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="10">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="11">
+        <v>994</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:18">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="10">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="11">
+        <v>994</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:18">
+      <c r="A6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="10">
+        <v>33</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="11">
+        <v>994</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:18">
+      <c r="A7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="10">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="11">
+        <v>994</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="8"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:18">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="8"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="9"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:18">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="8"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="9"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:18">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="8"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:18">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="8"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="9"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:18">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="8"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:18">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="8"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="9"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:18">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="8"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="9"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:18">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="8"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="9"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:18">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="8"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="9"/>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="8"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="9"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:18">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="8"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="9"/>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:18">
-      <c r="A20" s="3"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="8"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
